--- a/public/district.xlsx
+++ b/public/district.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuongYen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CG\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="500">
   <si>
     <t>Gangnam</t>
   </si>
@@ -176,12 +176,6 @@
     <t>중랑구</t>
   </si>
   <si>
-    <t>Sejong</t>
-  </si>
-  <si>
-    <t>세종시</t>
-  </si>
-  <si>
     <t>Geumjeong</t>
   </si>
   <si>
@@ -1386,12 +1380,156 @@
   </si>
   <si>
     <t>제주시</t>
+  </si>
+  <si>
+    <t>아름동</t>
+  </si>
+  <si>
+    <t>Areum-Dong</t>
+  </si>
+  <si>
+    <t>반곡동</t>
+  </si>
+  <si>
+    <t>Bangok-Dong</t>
+  </si>
+  <si>
+    <t>보람동</t>
+  </si>
+  <si>
+    <t>Boram-Dong</t>
+  </si>
+  <si>
+    <t>부강면</t>
+  </si>
+  <si>
+    <t>Bugang-myeon</t>
+  </si>
+  <si>
+    <t>대평동</t>
+  </si>
+  <si>
+    <t>Daepyeong-Dong</t>
+  </si>
+  <si>
+    <t>다정동</t>
+  </si>
+  <si>
+    <t>Dajeong-Dong</t>
+  </si>
+  <si>
+    <t>도담동</t>
+  </si>
+  <si>
+    <t>Dodam-Dong</t>
+  </si>
+  <si>
+    <t>어진동</t>
+  </si>
+  <si>
+    <t>Eojin-Dong</t>
+  </si>
+  <si>
+    <t>가람동</t>
+  </si>
+  <si>
+    <t>Garam-Dong</t>
+  </si>
+  <si>
+    <t>금남면</t>
+  </si>
+  <si>
+    <t>Geumnam-myeon</t>
+  </si>
+  <si>
+    <t>고운동</t>
+  </si>
+  <si>
+    <t>Goun-Dong</t>
+  </si>
+  <si>
+    <t>한솔동</t>
+  </si>
+  <si>
+    <t>Hansol-Dong</t>
+  </si>
+  <si>
+    <t>장군면</t>
+  </si>
+  <si>
+    <t>Janggun-myeon</t>
+  </si>
+  <si>
+    <t>전동면</t>
+  </si>
+  <si>
+    <t>Jeondong-myeon</t>
+  </si>
+  <si>
+    <t>전의면</t>
+  </si>
+  <si>
+    <t>Jeonui-myeon</t>
+  </si>
+  <si>
+    <t>조치원읍</t>
+  </si>
+  <si>
+    <t>Jochiwon-eup</t>
+  </si>
+  <si>
+    <t>종촌동</t>
+  </si>
+  <si>
+    <t>Jongchon-Dong</t>
+  </si>
+  <si>
+    <t>나성동</t>
+  </si>
+  <si>
+    <t>Naseong-Dong</t>
+  </si>
+  <si>
+    <t>새롬동</t>
+  </si>
+  <si>
+    <t>Saerom-Dong</t>
+  </si>
+  <si>
+    <t>소담동</t>
+  </si>
+  <si>
+    <t>Sodam-Dong</t>
+  </si>
+  <si>
+    <t>소정면</t>
+  </si>
+  <si>
+    <t>Sojeong-myeon</t>
+  </si>
+  <si>
+    <t>연동면</t>
+  </si>
+  <si>
+    <t>Yeondong-myeon</t>
+  </si>
+  <si>
+    <t>연기면</t>
+  </si>
+  <si>
+    <t>Yeongi-myeon</t>
+  </si>
+  <si>
+    <t>연서면</t>
+  </si>
+  <si>
+    <t>Yeonseo-myeon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1401,12 +1539,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1421,10 +1565,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1706,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,10 +2234,10 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>21110</v>
@@ -2101,10 +2248,10 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>21310</v>
@@ -2115,10 +2262,10 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>21070</v>
@@ -2129,10 +2276,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30">
         <v>21030</v>
@@ -2143,10 +2290,10 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>21060</v>
@@ -2157,10 +2304,10 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>21050</v>
@@ -2171,10 +2318,10 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>21080</v>
@@ -2185,10 +2332,10 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>21150</v>
@@ -2199,10 +2346,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>21100</v>
@@ -2213,10 +2360,10 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>21020</v>
@@ -2227,10 +2374,10 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <v>21140</v>
@@ -2241,10 +2388,10 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>21130</v>
@@ -2255,10 +2402,10 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39">
         <v>21040</v>
@@ -2283,10 +2430,10 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>21090</v>
@@ -2297,10 +2444,10 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D42">
         <v>22040</v>
@@ -2311,10 +2458,10 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>22070</v>
@@ -2325,10 +2472,10 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44">
         <v>22310</v>
@@ -2339,10 +2486,10 @@
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45">
         <v>22020</v>
@@ -2353,10 +2500,10 @@
         <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46">
         <v>22050</v>
@@ -2367,10 +2514,10 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47">
         <v>22030</v>
@@ -2381,10 +2528,10 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>22060</v>
@@ -2409,10 +2556,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D50">
         <v>23310</v>
@@ -2423,10 +2570,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <v>23070</v>
@@ -2437,10 +2584,10 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D52">
         <v>23030</v>
@@ -2451,10 +2598,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53">
         <v>23050</v>
@@ -2465,10 +2612,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <v>23020</v>
@@ -2479,10 +2626,10 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D55">
         <v>23060</v>
@@ -2493,10 +2640,10 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <v>23080</v>
@@ -2507,10 +2654,10 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D57">
         <v>23040</v>
@@ -2521,10 +2668,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58">
         <v>23320</v>
@@ -2549,10 +2696,10 @@
         <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D60">
         <v>24050</v>
@@ -2563,10 +2710,10 @@
         <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61">
         <v>24030</v>
@@ -2577,10 +2724,10 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <v>24010</v>
@@ -2591,10 +2738,10 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63">
         <v>24040</v>
@@ -2605,10 +2752,10 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64">
         <v>24020</v>
@@ -2619,10 +2766,10 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D65">
         <v>25050</v>
@@ -2633,10 +2780,10 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D66">
         <v>25010</v>
@@ -2647,10 +2794,10 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D67">
         <v>25030</v>
@@ -2661,10 +2808,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D68">
         <v>25040</v>
@@ -2689,10 +2836,10 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D70">
         <v>26020</v>
@@ -2703,10 +2850,10 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D71">
         <v>26030</v>
@@ -2717,10 +2864,10 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72">
         <v>26040</v>
@@ -2731,10 +2878,10 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D73">
         <v>26310</v>
@@ -2756,16 +2903,16 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="D75">
-        <v>29010</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,13 +2920,13 @@
         <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D76">
-        <v>31370</v>
+        <v>31101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,13 +2934,13 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D77">
-        <v>31101</v>
+        <v>31103</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2801,13 +2948,13 @@
         <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D78">
-        <v>31103</v>
+        <v>31104</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,13 +2962,13 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D79">
-        <v>31104</v>
+        <v>31110</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,13 +2976,13 @@
         <v>31</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D80">
-        <v>31110</v>
+        <v>31060</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2843,13 +2990,13 @@
         <v>31</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D81">
-        <v>31060</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2857,13 +3004,13 @@
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D82">
-        <v>31250</v>
+        <v>31120</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2871,13 +3018,13 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D83">
-        <v>31120</v>
+        <v>31160</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2885,13 +3032,13 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84">
-        <v>31160</v>
+        <v>31230</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2899,13 +3046,13 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D85">
-        <v>31230</v>
+        <v>31130</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,13 +3060,13 @@
         <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D86">
-        <v>31130</v>
+        <v>31080</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2927,13 +3074,13 @@
         <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D87">
-        <v>31080</v>
+        <v>31050</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,13 +3088,13 @@
         <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D88">
-        <v>31050</v>
+        <v>31023</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,13 +3102,13 @@
         <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D89">
-        <v>31023</v>
+        <v>31021</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,13 +3116,13 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D90">
-        <v>31021</v>
+        <v>31022</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,13 +3130,13 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D91">
-        <v>31022</v>
+        <v>31012</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,13 +3144,13 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92">
-        <v>31012</v>
+        <v>31014</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,13 +3158,13 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D93">
-        <v>31014</v>
+        <v>31011</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,13 +3172,13 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D94">
-        <v>31011</v>
+        <v>31013</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,13 +3186,13 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D95">
-        <v>31013</v>
+        <v>31150</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,13 +3200,13 @@
         <v>31</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96">
-        <v>31150</v>
+        <v>31092</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,13 +3214,13 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D97">
-        <v>31092</v>
+        <v>31091</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,13 +3228,13 @@
         <v>31</v>
       </c>
       <c r="B98" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D98">
-        <v>31091</v>
+        <v>31220</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,13 +3242,13 @@
         <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D99">
-        <v>31220</v>
+        <v>31042</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,13 +3256,13 @@
         <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D100">
-        <v>31042</v>
+        <v>31041</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,13 +3270,13 @@
         <v>31</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D101">
-        <v>31041</v>
+        <v>31260</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,13 +3284,13 @@
         <v>31</v>
       </c>
       <c r="B102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D102">
-        <v>31260</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,13 +3298,13 @@
         <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D103">
-        <v>31380</v>
+        <v>31280</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,13 +3312,13 @@
         <v>31</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D104">
-        <v>31280</v>
+        <v>31350</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,13 +3326,13 @@
         <v>31</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D105">
-        <v>31350</v>
+        <v>31140</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,13 +3340,13 @@
         <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D106">
-        <v>31140</v>
+        <v>31192</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3207,13 +3354,13 @@
         <v>31</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D107">
-        <v>31192</v>
+        <v>31193</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,13 +3368,13 @@
         <v>31</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D108">
-        <v>31193</v>
+        <v>31191</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,13 +3382,13 @@
         <v>31</v>
       </c>
       <c r="B109" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D109">
-        <v>31191</v>
+        <v>31170</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,13 +3396,13 @@
         <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D110">
-        <v>31170</v>
+        <v>31030</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,13 +3410,13 @@
         <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D111">
-        <v>31030</v>
+        <v>31210</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,13 +3424,13 @@
         <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D112">
-        <v>31210</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,13 +3438,13 @@
         <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D113">
-        <v>31200</v>
+        <v>31070</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,13 +3452,13 @@
         <v>31</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D114">
-        <v>31070</v>
+        <v>31270</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,13 +3466,13 @@
         <v>31</v>
       </c>
       <c r="B115" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D115">
-        <v>31270</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,27 +3480,27 @@
         <v>31</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D116">
-        <v>31180</v>
+        <v>31240</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B117" t="s">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="C117" t="s">
-        <v>343</v>
+        <v>154</v>
       </c>
       <c r="D117">
-        <v>31240</v>
+        <v>32030</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,13 +3508,13 @@
         <v>32</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118">
-        <v>32030</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3375,13 +3522,13 @@
         <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119">
-        <v>32400</v>
+        <v>32040</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3389,13 +3536,13 @@
         <v>32</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D120">
-        <v>32040</v>
+        <v>32070</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3403,13 +3550,13 @@
         <v>32</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D121">
-        <v>32070</v>
+        <v>32060</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,13 +3564,13 @@
         <v>32</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122">
-        <v>32060</v>
+        <v>32380</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3431,13 +3578,13 @@
         <v>32</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D123">
-        <v>32380</v>
+        <v>32410</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,13 +3592,13 @@
         <v>32</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C124" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D124">
-        <v>32410</v>
+        <v>32330</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,13 +3606,13 @@
         <v>32</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C125" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D125">
-        <v>32330</v>
+        <v>32020</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3473,13 +3620,13 @@
         <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D126">
-        <v>32020</v>
+        <v>32390</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3487,13 +3634,13 @@
         <v>32</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D127">
-        <v>32390</v>
+        <v>32350</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3501,13 +3648,13 @@
         <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D128">
-        <v>32350</v>
+        <v>32360</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,13 +3662,13 @@
         <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D129">
-        <v>32360</v>
+        <v>32010</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3529,13 +3676,13 @@
         <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D130">
-        <v>32010</v>
+        <v>32050</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3543,13 +3690,13 @@
         <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D131">
-        <v>32050</v>
+        <v>32340</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,13 +3704,13 @@
         <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D132">
-        <v>32340</v>
+        <v>32310</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,13 +3718,13 @@
         <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D133">
-        <v>32310</v>
+        <v>32370</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,27 +3732,27 @@
         <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D134">
-        <v>32370</v>
+        <v>32320</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B135" t="s">
-        <v>155</v>
-      </c>
-      <c r="C135" t="s">
-        <v>173</v>
+        <v>342</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="D135">
-        <v>32320</v>
+        <v>33360</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,13 +3760,13 @@
         <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D136">
-        <v>33360</v>
+        <v>33380</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3627,13 +3774,13 @@
         <v>33</v>
       </c>
       <c r="B137" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D137">
-        <v>33380</v>
+        <v>33320</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3641,13 +3788,13 @@
         <v>33</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D138">
-        <v>33320</v>
+        <v>33340</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,13 +3802,13 @@
         <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D139">
-        <v>33340</v>
+        <v>33330</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,13 +3816,13 @@
         <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D140">
-        <v>33330</v>
+        <v>33370</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,13 +3830,13 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D141">
-        <v>33370</v>
+        <v>33030</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,13 +3844,13 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D142">
-        <v>33030</v>
+        <v>33390</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,13 +3858,13 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D143">
-        <v>33390</v>
+        <v>33350</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3725,13 +3872,13 @@
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D144">
-        <v>33350</v>
+        <v>33011</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,13 +3886,13 @@
         <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D145">
-        <v>33011</v>
+        <v>33013</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3753,13 +3900,13 @@
         <v>33</v>
       </c>
       <c r="B146" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D146">
-        <v>33013</v>
+        <v>33310</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,13 +3914,13 @@
         <v>33</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D147">
-        <v>33310</v>
+        <v>33012</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,27 +3928,27 @@
         <v>33</v>
       </c>
       <c r="B148" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D148">
-        <v>33012</v>
+        <v>33020</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B149" t="s">
-        <v>357</v>
+        <v>104</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>371</v>
+        <v>120</v>
       </c>
       <c r="D149">
-        <v>33020</v>
+        <v>34070</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,13 +3956,13 @@
         <v>34</v>
       </c>
       <c r="B150" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D150">
-        <v>34070</v>
+        <v>34020</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,13 +3970,13 @@
         <v>34</v>
       </c>
       <c r="B151" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D151">
-        <v>34020</v>
+        <v>34310</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,13 +3984,13 @@
         <v>34</v>
       </c>
       <c r="B152" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D152">
-        <v>34310</v>
+        <v>34060</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3998,13 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D153">
-        <v>34060</v>
+        <v>34080</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,13 +4012,13 @@
         <v>34</v>
       </c>
       <c r="B154" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D154">
-        <v>34080</v>
+        <v>34030</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,13 +4026,13 @@
         <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D155">
-        <v>34030</v>
+        <v>34330</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,13 +4040,13 @@
         <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D156">
-        <v>34330</v>
+        <v>34050</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,13 +4054,13 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D157">
-        <v>34050</v>
+        <v>34340</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,13 +4068,13 @@
         <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D158">
-        <v>34340</v>
+        <v>34040</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3935,13 +4082,13 @@
         <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D159">
-        <v>34040</v>
+        <v>34370</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,13 +4096,13 @@
         <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D160">
-        <v>34370</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3963,13 +4110,13 @@
         <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D161">
-        <v>34011</v>
+        <v>34012</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3977,13 +4124,13 @@
         <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D162">
-        <v>34012</v>
+        <v>34350</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3991,13 +4138,13 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D163">
-        <v>34350</v>
+        <v>34380</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,27 +4152,27 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D164">
-        <v>34380</v>
+        <v>34360</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>121</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>137</v>
+        <v>418</v>
+      </c>
+      <c r="C165" t="s">
+        <v>433</v>
       </c>
       <c r="D165">
-        <v>34360</v>
+        <v>35370</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,13 +4180,13 @@
         <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C166" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D166">
-        <v>35370</v>
+        <v>35020</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4047,13 +4194,13 @@
         <v>35</v>
       </c>
       <c r="B167" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C167" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D167">
-        <v>35020</v>
+        <v>35060</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,13 +4208,13 @@
         <v>35</v>
       </c>
       <c r="B168" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C168" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D168">
-        <v>35060</v>
+        <v>35050</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,13 +4222,13 @@
         <v>35</v>
       </c>
       <c r="B169" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D169">
-        <v>35050</v>
+        <v>35330</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,13 +4236,13 @@
         <v>35</v>
       </c>
       <c r="B170" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C170" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D170">
-        <v>35330</v>
+        <v>35380</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,13 +4250,13 @@
         <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C171" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D171">
-        <v>35380</v>
+        <v>35360</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,13 +4264,13 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D172">
-        <v>35360</v>
+        <v>35310</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,13 +4278,13 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D173">
-        <v>35310</v>
+        <v>35030</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,13 +4292,13 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D174">
-        <v>35030</v>
+        <v>35350</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4159,13 +4306,13 @@
         <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C175" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D175">
-        <v>35350</v>
+        <v>35340</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,13 +4320,13 @@
         <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D176">
-        <v>35340</v>
+        <v>35012</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,13 +4334,13 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C177" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D177">
-        <v>35012</v>
+        <v>35011</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,13 +4348,13 @@
         <v>35</v>
       </c>
       <c r="B178" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C178" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D178">
-        <v>35011</v>
+        <v>35040</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,27 +4362,27 @@
         <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D179">
-        <v>35040</v>
+        <v>35320</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B180" t="s">
-        <v>434</v>
+        <v>172</v>
       </c>
       <c r="C180" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
       <c r="D180">
-        <v>35320</v>
+        <v>36390</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,13 +4390,13 @@
         <v>36</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D181">
-        <v>36390</v>
+        <v>36350</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4257,13 +4404,13 @@
         <v>36</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D182">
-        <v>36350</v>
+        <v>36320</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4271,13 +4418,13 @@
         <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D183">
-        <v>36320</v>
+        <v>36060</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4285,13 +4432,13 @@
         <v>36</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D184">
-        <v>36060</v>
+        <v>36330</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,13 +4446,13 @@
         <v>36</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D185">
-        <v>36330</v>
+        <v>36040</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4313,13 +4460,13 @@
         <v>36</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D186">
-        <v>36040</v>
+        <v>36310</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4474,13 @@
         <v>36</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D187">
-        <v>36310</v>
+        <v>36010</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4341,13 +4488,13 @@
         <v>36</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D188">
-        <v>36010</v>
+        <v>36420</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +4502,13 @@
         <v>36</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D189">
-        <v>36420</v>
+        <v>36360</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4369,13 +4516,13 @@
         <v>36</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D190">
-        <v>36360</v>
+        <v>36030</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,13 +4530,13 @@
         <v>36</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D191">
-        <v>36030</v>
+        <v>36480</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4397,13 +4544,13 @@
         <v>36</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D192">
-        <v>36480</v>
+        <v>36020</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,13 +4558,13 @@
         <v>36</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D193">
-        <v>36020</v>
+        <v>36440</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,13 +4572,13 @@
         <v>36</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D194">
-        <v>36440</v>
+        <v>36410</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,13 +4586,13 @@
         <v>36</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C195" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D195">
-        <v>36410</v>
+        <v>36460</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,13 +4600,13 @@
         <v>36</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D196">
-        <v>36460</v>
+        <v>36450</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,13 +4614,13 @@
         <v>36</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D197">
-        <v>36450</v>
+        <v>36380</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,13 +4628,13 @@
         <v>36</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D198">
-        <v>36380</v>
+        <v>36470</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,13 +4642,13 @@
         <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D199">
-        <v>36470</v>
+        <v>36430</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,13 +4656,13 @@
         <v>36</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C200" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D200">
-        <v>36430</v>
+        <v>36400</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,27 +4670,27 @@
         <v>36</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D201">
-        <v>36400</v>
+        <v>36370</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="C202" t="s">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c r="D202">
-        <v>36370</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,13 +4698,13 @@
         <v>37</v>
       </c>
       <c r="B203" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C203" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D203">
-        <v>37100</v>
+        <v>37020</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,13 +4712,13 @@
         <v>37</v>
       </c>
       <c r="B204" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C204" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D204">
-        <v>37020</v>
+        <v>37370</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,13 +4726,13 @@
         <v>37</v>
       </c>
       <c r="B205" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C205" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D205">
-        <v>37370</v>
+        <v>37050</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,13 +4740,13 @@
         <v>37</v>
       </c>
       <c r="B206" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C206" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D206">
-        <v>37050</v>
+        <v>37310</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,13 +4754,13 @@
         <v>37</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C207" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D207">
-        <v>37310</v>
+        <v>37030</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4621,13 +4768,13 @@
         <v>37</v>
       </c>
       <c r="B208" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D208">
-        <v>37030</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,13 +4782,13 @@
         <v>37</v>
       </c>
       <c r="B209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C209" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D209">
-        <v>37090</v>
+        <v>37410</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,13 +4796,13 @@
         <v>37</v>
       </c>
       <c r="B210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C210" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D210">
-        <v>37410</v>
+        <v>37080</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,13 +4810,13 @@
         <v>37</v>
       </c>
       <c r="B211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C211" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D211">
-        <v>37080</v>
+        <v>37380</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,13 +4824,13 @@
         <v>37</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C212" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D212">
-        <v>37380</v>
+        <v>37040</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,13 +4838,13 @@
         <v>37</v>
       </c>
       <c r="B213" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C213" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D213">
-        <v>37040</v>
+        <v>37350</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,13 +4852,13 @@
         <v>37</v>
       </c>
       <c r="B214" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C214" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D214">
-        <v>37350</v>
+        <v>37340</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,13 +4866,13 @@
         <v>37</v>
       </c>
       <c r="B215" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C215" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D215">
-        <v>37340</v>
+        <v>37060</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,13 +4880,13 @@
         <v>37</v>
       </c>
       <c r="B216" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C216" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D216">
-        <v>37060</v>
+        <v>37070</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,13 +4894,13 @@
         <v>37</v>
       </c>
       <c r="B217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C217" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D217">
-        <v>37070</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4761,13 +4908,13 @@
         <v>37</v>
       </c>
       <c r="B218" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C218" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D218">
-        <v>37400</v>
+        <v>37430</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,13 +4922,13 @@
         <v>37</v>
       </c>
       <c r="B219" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D219">
-        <v>37430</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,13 +4936,13 @@
         <v>37</v>
       </c>
       <c r="B220" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C220" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D220">
-        <v>37420</v>
+        <v>37320</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,13 +4950,13 @@
         <v>37</v>
       </c>
       <c r="B221" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C221" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D221">
-        <v>37320</v>
+        <v>37360</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4817,13 +4964,13 @@
         <v>37</v>
       </c>
       <c r="B222" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C222" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D222">
-        <v>37360</v>
+        <v>37330</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,13 +4978,13 @@
         <v>37</v>
       </c>
       <c r="B223" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C223" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D223">
-        <v>37330</v>
+        <v>37390</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,13 +4992,13 @@
         <v>37</v>
       </c>
       <c r="B224" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C224" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D224">
-        <v>37390</v>
+        <v>37011</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,27 +5006,27 @@
         <v>37</v>
       </c>
       <c r="B225" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C225" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D225">
-        <v>37011</v>
+        <v>37012</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B226" t="s">
-        <v>395</v>
-      </c>
-      <c r="C226" t="s">
-        <v>419</v>
+        <v>216</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D226">
-        <v>37012</v>
+        <v>38090</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,13 +5034,13 @@
         <v>38</v>
       </c>
       <c r="B227" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D227">
-        <v>38090</v>
+        <v>38390</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,13 +5048,13 @@
         <v>38</v>
       </c>
       <c r="B228" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="D228">
-        <v>38390</v>
+        <v>38340</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,13 +5062,13 @@
         <v>38</v>
       </c>
       <c r="B229" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="D229">
-        <v>38340</v>
+        <v>38070</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4929,13 +5076,13 @@
         <v>38</v>
       </c>
       <c r="B230" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D230">
-        <v>38070</v>
+        <v>38350</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,13 +5090,13 @@
         <v>38</v>
       </c>
       <c r="B231" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D231">
-        <v>38350</v>
+        <v>38080</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,13 +5104,13 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D232">
-        <v>38080</v>
+        <v>38060</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,13 +5118,13 @@
         <v>38</v>
       </c>
       <c r="B233" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D233">
-        <v>38060</v>
+        <v>38370</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4985,13 +5132,13 @@
         <v>38</v>
       </c>
       <c r="B234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D234">
-        <v>38370</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4999,13 +5146,13 @@
         <v>38</v>
       </c>
       <c r="B235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D235">
-        <v>38100</v>
+        <v>38310</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,13 +5160,13 @@
         <v>38</v>
       </c>
       <c r="B236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D236">
-        <v>38310</v>
+        <v>38030</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,13 +5174,13 @@
         <v>38</v>
       </c>
       <c r="B237" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D237">
-        <v>38030</v>
+        <v>38330</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,13 +5188,13 @@
         <v>38</v>
       </c>
       <c r="B238" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D238">
-        <v>38330</v>
+        <v>38113</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,13 +5202,13 @@
         <v>38</v>
       </c>
       <c r="B239" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D239">
-        <v>38113</v>
+        <v>38114</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,13 +5216,13 @@
         <v>38</v>
       </c>
       <c r="B240" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D240">
-        <v>38114</v>
+        <v>38112</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,13 +5230,13 @@
         <v>38</v>
       </c>
       <c r="B241" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D241">
-        <v>38112</v>
+        <v>38111</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,13 +5244,13 @@
         <v>38</v>
       </c>
       <c r="B242" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D242">
-        <v>38111</v>
+        <v>38115</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,13 +5258,13 @@
         <v>38</v>
       </c>
       <c r="B243" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D243">
-        <v>38115</v>
+        <v>38050</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,13 +5272,13 @@
         <v>38</v>
       </c>
       <c r="B244" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D244">
-        <v>38050</v>
+        <v>38360</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,13 +5286,13 @@
         <v>38</v>
       </c>
       <c r="B245" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D245">
-        <v>38360</v>
+        <v>38320</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5153,13 +5300,13 @@
         <v>38</v>
       </c>
       <c r="B246" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D246">
-        <v>38320</v>
+        <v>38380</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5167,27 +5314,27 @@
         <v>38</v>
       </c>
       <c r="B247" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D247">
-        <v>38380</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B248" t="s">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>259</v>
+        <v>450</v>
       </c>
       <c r="D248">
-        <v>38400</v>
+        <v>39020</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,27 +5342,349 @@
         <v>39</v>
       </c>
       <c r="B249" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D249">
-        <v>39020</v>
+        <v>39010</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>39</v>
-      </c>
-      <c r="B250" t="s">
-        <v>451</v>
-      </c>
-      <c r="C250" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D250">
-        <v>39010</v>
+      <c r="C250" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D250" s="2">
+        <v>30099</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>30</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D251" s="2">
+        <v>30145</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>30</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D252" s="2">
+        <v>30150</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>30</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D253" s="2">
+        <v>30067</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>30</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D254" s="2">
+        <v>30083</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>30</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D255" s="2">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>30</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D256" s="2">
+        <v>30097</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>30</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D257" s="2">
+        <v>30064</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>30</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D258" s="2">
+        <v>30065</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>30</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D259" s="2">
+        <v>30079</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>30</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D260" s="2">
+        <v>30062</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>30</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D261" s="2">
+        <v>30130</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>30</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D262" s="2">
+        <v>30050</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>30</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D263" s="2">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>30</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D264" s="2">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>30</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D265" s="2">
+        <v>30015</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>30</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D266" s="2">
+        <v>30064</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>30</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D267" s="2">
+        <v>30123</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>30</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D268" s="2">
+        <v>30125</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>30</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D269" s="2">
+        <v>30147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>30</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D270" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>30</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D271" s="2">
+        <v>30066</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>30</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D272" s="2">
+        <v>30057</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>30</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D273" s="2">
+        <v>30031</v>
       </c>
     </row>
   </sheetData>
@@ -5223,5 +5692,6 @@
     <sortCondition ref="A1:A250"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>